--- a/Source/Excel/activity.xlsx
+++ b/Source/Excel/activity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02209A3D-9CA5-4466-B597-B30DC005A2D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BEB232-823B-49C2-B8EB-132789A94BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -66,27 +66,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首充</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年大礼包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次充值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>转盘抽奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包</t>
+    <t>签到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大秘宝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,7 +518,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -544,38 +536,38 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1701360000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1703952000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -590,7 +582,30 @@
         <v>1703952000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Excel/activity.xlsx
+++ b/Source/Excel/activity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BEB232-823B-49C2-B8EB-132789A94BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA03BB-E683-4610-9437-018095B1A5D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>大秘宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,6 +177,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +467,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,8 +537,8 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -549,8 +560,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -572,8 +583,8 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>1701360000</v>
@@ -595,8 +606,8 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>

--- a/Source/Excel/activity.xlsx
+++ b/Source/Excel/activity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA03BB-E683-4610-9437-018095B1A5D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2319F703-4E8D-4F2A-B673-349A249C0EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -87,6 +83,10 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +189,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,12 +479,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
@@ -485,60 +498,60 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>101</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -547,21 +560,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>102</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -570,21 +583,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>103</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>1701360000</v>
@@ -593,21 +606,21 @@
         <v>1703952000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>104</v>
       </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
       <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -616,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Excel/activity.xlsx
+++ b/Source/Excel/activity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2319F703-4E8D-4F2A-B673-349A249C0EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE3956-3C3B-4DDD-91E9-5C14803677DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -87,6 +87,34 @@
   </si>
   <si>
     <t>activityID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +163,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -177,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +238,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,61 +569,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>101</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -583,52 +635,75 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
-        <v>1701360000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1703952000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1701360000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1703952000</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>104</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Source/Excel/activity.xlsx
+++ b/Source/Excel/activity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE3956-3C3B-4DDD-91E9-5C14803677DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EECD09-D7C0-46B8-B31E-B2FC49D674B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -30,18 +30,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>beginTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>endTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>long</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -58,10 +46,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>签到</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -78,14 +62,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>activityID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -102,10 +78,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>限时活动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>起始时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -115,6 +87,26 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +523,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,45 +543,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -600,19 +592,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -623,10 +615,10 @@
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -635,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -646,10 +638,10 @@
         <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -658,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -669,19 +661,19 @@
         <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1701360000</v>
+        <v>1759248000</v>
       </c>
       <c r="F6" s="1">
-        <v>1703952000</v>
+        <v>1767110400</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -692,10 +684,10 @@
         <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -704,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
